--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb163/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05067D-EA26-9A45-ACA7-9E2D03146D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5F8C8-BC2D-BB44-97E6-420E9E4F24C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="2460" windowWidth="27640" windowHeight="16940" xr2:uid="{7864FAFB-BF0F-E14F-8635-EA729CB2DF5D}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{7864FAFB-BF0F-E14F-8635-EA729CB2DF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,115 +47,115 @@
     <t>0- 10</t>
   </si>
   <si>
-    <t>101-105....................</t>
-  </si>
-  <si>
     <t>11- 15</t>
   </si>
   <si>
-    <t>100-110....................</t>
-  </si>
-  <si>
-    <t>10- 20</t>
-  </si>
-  <si>
-    <t>111-115....................</t>
-  </si>
-  <si>
     <t>20- 25</t>
   </si>
   <si>
-    <t>116-120....................</t>
-  </si>
-  <si>
-    <t>20- 30</t>
-  </si>
-  <si>
-    <t>121-125....................</t>
-  </si>
-  <si>
     <t>31- 35</t>
   </si>
   <si>
-    <t>120-130....................</t>
-  </si>
-  <si>
-    <t>30- 40 ..</t>
-  </si>
-  <si>
-    <t>131-135....................</t>
-  </si>
-  <si>
     <t>41- 45</t>
   </si>
   <si>
-    <t>130-140....................</t>
-  </si>
-  <si>
-    <t>45- 50 ..................</t>
-  </si>
-  <si>
-    <t>141-145....................</t>
-  </si>
-  <si>
     <t>51- 55</t>
   </si>
   <si>
-    <t>146-150....................</t>
-  </si>
-  <si>
-    <t>50- 00</t>
-  </si>
-  <si>
-    <t>151-155....................</t>
-  </si>
-  <si>
-    <t>01- 05</t>
-  </si>
-  <si>
-    <t>150-100....................</t>
-  </si>
-  <si>
-    <t>00- 70</t>
-  </si>
-  <si>
-    <t>161-165____________________</t>
-  </si>
-  <si>
     <t>71- 75</t>
   </si>
   <si>
-    <t>160-170....................</t>
-  </si>
-  <si>
-    <t>70- 80</t>
-  </si>
-  <si>
-    <t>171-175....................</t>
-  </si>
-  <si>
     <t>81- 85</t>
   </si>
   <si>
-    <t>176-180....................</t>
-  </si>
-  <si>
-    <t>90- 100</t>
-  </si>
-  <si>
-    <t>Total...................</t>
-  </si>
-  <si>
-    <t>85- 90</t>
-  </si>
-  <si>
-    <t>90- 95</t>
-  </si>
-  <si>
     <t>181 and over</t>
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>101-105</t>
+  </si>
+  <si>
+    <t>111-115</t>
+  </si>
+  <si>
+    <t>116-120</t>
+  </si>
+  <si>
+    <t>121-125</t>
+  </si>
+  <si>
+    <t>131-135</t>
+  </si>
+  <si>
+    <t>141-145</t>
+  </si>
+  <si>
+    <t>146-150</t>
+  </si>
+  <si>
+    <t>151-155</t>
+  </si>
+  <si>
+    <t>171-175</t>
+  </si>
+  <si>
+    <t>176-180</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>16- 20</t>
+  </si>
+  <si>
+    <t>26- 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36- 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46- 50 </t>
+  </si>
+  <si>
+    <t>56- 60</t>
+  </si>
+  <si>
+    <t>61- 65</t>
+  </si>
+  <si>
+    <t>66- 70</t>
+  </si>
+  <si>
+    <t>76- 80</t>
+  </si>
+  <si>
+    <t>86- 90</t>
+  </si>
+  <si>
+    <t>91- 95</t>
+  </si>
+  <si>
+    <t>161-165</t>
+  </si>
+  <si>
+    <t>96- 100</t>
+  </si>
+  <si>
+    <t>106-110</t>
+  </si>
+  <si>
+    <t>126-130</t>
+  </si>
+  <si>
+    <t>136-140</t>
+  </si>
+  <si>
+    <t>156-100</t>
+  </si>
+  <si>
+    <t>166-170</t>
   </si>
 </sst>
 </file>
@@ -515,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A167A578-0F17-F349-9A77-97479F29F71F}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -552,7 +560,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>128</v>
@@ -563,7 +571,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>954</v>
@@ -574,7 +582,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>679</v>
@@ -585,7 +593,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>707</v>
@@ -596,7 +604,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>628</v>
@@ -607,7 +615,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>820</v>
@@ -618,7 +626,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>429</v>
@@ -629,7 +637,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>311</v>
@@ -640,7 +648,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>136</v>
@@ -651,7 +659,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>113</v>
@@ -662,7 +670,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>110</v>
@@ -673,7 +681,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>35</v>
@@ -684,7 +692,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>32</v>
@@ -706,7 +714,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -717,7 +725,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -728,7 +736,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
@@ -750,7 +758,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>8</v>
@@ -761,7 +769,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -772,7 +780,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -794,7 +802,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>5</v>
@@ -805,7 +813,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
@@ -816,7 +824,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -827,7 +835,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
         <v>9</v>
@@ -838,7 +846,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -849,7 +857,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -860,7 +868,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
         <v>16</v>
@@ -871,7 +879,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -882,7 +890,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -893,7 +901,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -904,7 +912,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
@@ -915,7 +923,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -926,7 +934,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>19</v>
@@ -937,7 +945,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <v>5261</v>
@@ -948,7 +956,7 @@
     </row>
     <row r="39" spans="1:3" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B39" s="4">
         <f>SUM(B2:B37)-B38</f>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5F8C8-BC2D-BB44-97E6-420E9E4F24C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ACD0D7-F736-1447-8CEA-5607DC576782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{7864FAFB-BF0F-E14F-8635-EA729CB2DF5D}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>136-140</t>
   </si>
   <si>
-    <t>156-100</t>
-  </si>
-  <si>
     <t>166-170</t>
+  </si>
+  <si>
+    <t>156-160</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -879,7 +879,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
